--- a/010_Hardware/050_STM32F303_Documents/STM32F303_Pinning.xlsx
+++ b/010_Hardware/050_STM32F303_Documents/STM32F303_Pinning.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Eigenentwicklungen\uTTA_private_GIT\uTTA_private\010_Hardware\F303\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Eigenentwicklungen\GitHub\uTTA\010_Hardware\050_STM32F303_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C128C5F5-9CD9-453F-9179-AB9C56CDA983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7003DE4-BFE9-4295-B059-4F8BDDE0834B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76BA8B3E-CD18-4786-8207-DCA62BB0641F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="38700" windowHeight="15285" activeTab="1" xr2:uid="{76BA8B3E-CD18-4786-8207-DCA62BB0641F}"/>
   </bookViews>
   <sheets>
     <sheet name="IO-Table" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3791" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="569">
   <si>
     <t>Notes</t>
   </si>
@@ -1443,9 +1443,6 @@
     <t>[PB9] GPIO</t>
   </si>
   <si>
-    <t>SPARE_ADC3_CH</t>
-  </si>
-  <si>
     <t>SPARE_ADC4_CH</t>
   </si>
   <si>
@@ -1632,9 +1629,6 @@
     <t>CN10.32</t>
   </si>
   <si>
-    <t>USB_DEV_DETECT_DO</t>
-  </si>
-  <si>
     <t>CN7.5</t>
   </si>
   <si>
@@ -1744,6 +1738,21 @@
   </si>
   <si>
     <t>PWSTG_PWR_EN_DO</t>
+  </si>
+  <si>
+    <t>STATUS_LED_DO</t>
+  </si>
+  <si>
+    <t>ERROR_LED_DO</t>
+  </si>
+  <si>
+    <t>ACTIVE_LED_DO</t>
+  </si>
+  <si>
+    <t>TEMP_SPI_MOSI_DO</t>
+  </si>
+  <si>
+    <t>TEMP_SPI_DAC_CS_N</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1876,6 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -2026,7 +2036,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40618008-1A54-427E-A83F-55235DD4C9F5}" name="Tabelle1" displayName="Tabelle1" ref="A1:N452" totalsRowShown="0">
-  <autoFilter ref="A1:N452" xr:uid="{40618008-1A54-427E-A83F-55235DD4C9F5}"/>
+  <autoFilter ref="A1:N452" xr:uid="{40618008-1A54-427E-A83F-55235DD4C9F5}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="PA11"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D8C8D07A-017C-4D43-9BA8-90E700FABB29}" name="LQFP64"/>
     <tableColumn id="2" xr3:uid="{A25C0A19-360A-4F87-8B33-4F194F2E87DF}" name="LQFP100"/>
@@ -2348,20 +2364,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D264614-DB0F-4F8B-ACE1-0477217C41E7}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:O508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K455" sqref="K455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
@@ -2412,10 +2429,10 @@
         <v>386</v>
       </c>
       <c r="N1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2458,10 +2475,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2504,11 +2521,11 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2548,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2591,10 +2608,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2634,10 +2651,10 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2677,10 +2694,10 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2720,10 +2737,10 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2763,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2806,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2849,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2895,11 +2912,11 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2939,11 +2956,11 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2983,11 +3000,11 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3030,11 +3047,11 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3074,11 +3091,11 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3118,11 +3135,11 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3162,11 +3179,11 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3206,11 +3223,11 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3250,11 +3267,11 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3297,11 +3314,11 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3341,11 +3358,11 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3385,11 +3402,11 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -3429,11 +3446,11 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3473,11 +3490,11 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3520,11 +3537,11 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3556,7 +3573,7 @@
         <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L27">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -3567,11 +3584,11 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3614,10 +3631,10 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -3657,10 +3674,10 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -3700,10 +3717,10 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -3743,11 +3760,11 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -3787,11 +3804,11 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -3834,11 +3851,11 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3878,11 +3895,11 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -3922,11 +3939,11 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -3966,11 +3983,11 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -4010,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -4056,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -4099,10 +4116,10 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -4135,17 +4152,17 @@
       </c>
       <c r="L40">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -4185,10 +4202,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10</v>
       </c>
@@ -4228,11 +4245,11 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -4275,10 +4292,10 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11</v>
       </c>
@@ -4318,10 +4335,10 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -4361,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -4404,10 +4421,10 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -4447,11 +4464,11 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O47" s="12"/>
     </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -4494,10 +4511,10 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -4540,10 +4557,10 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -4586,11 +4603,11 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -4630,11 +4647,11 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14</v>
       </c>
@@ -4674,11 +4691,11 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O52" s="12"/>
     </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14</v>
       </c>
@@ -4718,11 +4735,11 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O53" s="12"/>
     </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -4762,11 +4779,11 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -4806,11 +4823,11 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
@@ -4850,11 +4867,11 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
       </c>
@@ -4894,11 +4911,11 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14</v>
       </c>
@@ -4938,11 +4955,11 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>14</v>
       </c>
@@ -4982,11 +4999,11 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14</v>
       </c>
@@ -5026,11 +5043,11 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14</v>
       </c>
@@ -5070,11 +5087,11 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15</v>
       </c>
@@ -5117,11 +5134,11 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>15</v>
       </c>
@@ -5161,11 +5178,11 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15</v>
       </c>
@@ -5205,11 +5222,11 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -5249,11 +5266,11 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
@@ -5293,11 +5310,11 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15</v>
       </c>
@@ -5337,11 +5354,11 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15</v>
       </c>
@@ -5381,11 +5398,11 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>15</v>
       </c>
@@ -5425,11 +5442,11 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>15</v>
       </c>
@@ -5469,11 +5486,11 @@
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>15</v>
       </c>
@@ -5513,11 +5530,11 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15</v>
       </c>
@@ -5557,11 +5574,11 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
@@ -5601,11 +5618,11 @@
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16</v>
       </c>
@@ -5645,11 +5662,11 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
@@ -5689,11 +5706,11 @@
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>16</v>
       </c>
@@ -5736,11 +5753,11 @@
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -5780,11 +5797,11 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>16</v>
       </c>
@@ -5824,11 +5841,11 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>16</v>
       </c>
@@ -5868,11 +5885,11 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16</v>
       </c>
@@ -5912,11 +5929,11 @@
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O80" s="12"/>
     </row>
-    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16</v>
       </c>
@@ -5956,11 +5973,11 @@
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O81" s="12"/>
     </row>
-    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>16</v>
       </c>
@@ -6000,11 +6017,11 @@
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O82" s="12"/>
     </row>
-    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>17</v>
       </c>
@@ -6044,11 +6061,11 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O83" s="12"/>
     </row>
-    <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>17</v>
       </c>
@@ -6088,11 +6105,11 @@
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O84" s="12"/>
     </row>
-    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>17</v>
       </c>
@@ -6132,11 +6149,11 @@
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O85" s="12"/>
     </row>
-    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>17</v>
       </c>
@@ -6179,11 +6196,11 @@
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O86" s="12"/>
     </row>
-    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>17</v>
       </c>
@@ -6223,10 +6240,10 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>17</v>
       </c>
@@ -6266,10 +6283,10 @@
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>17</v>
       </c>
@@ -6309,10 +6326,10 @@
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17</v>
       </c>
@@ -6352,10 +6369,10 @@
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>17</v>
       </c>
@@ -6395,10 +6412,10 @@
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18</v>
       </c>
@@ -6441,7 +6458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19</v>
       </c>
@@ -6484,7 +6501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20</v>
       </c>
@@ -6527,11 +6544,11 @@
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O94" s="12"/>
     </row>
-    <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20</v>
       </c>
@@ -6571,11 +6588,11 @@
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O95" s="12"/>
     </row>
-    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20</v>
       </c>
@@ -6615,11 +6632,11 @@
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O96" s="12"/>
     </row>
-    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20</v>
       </c>
@@ -6659,11 +6676,11 @@
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O97" s="12"/>
     </row>
-    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -6703,11 +6720,11 @@
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O98" s="12"/>
     </row>
-    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20</v>
       </c>
@@ -6747,11 +6764,11 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O99" s="12"/>
     </row>
-    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20</v>
       </c>
@@ -6791,11 +6808,11 @@
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O100" s="12"/>
     </row>
-    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20</v>
       </c>
@@ -6835,11 +6852,11 @@
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O101" s="12"/>
     </row>
-    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20</v>
       </c>
@@ -6879,11 +6896,11 @@
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O102" s="12"/>
     </row>
-    <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20</v>
       </c>
@@ -6923,11 +6940,11 @@
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O103" s="12"/>
     </row>
-    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -6967,11 +6984,11 @@
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O104" s="12"/>
     </row>
-    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20</v>
       </c>
@@ -7011,11 +7028,11 @@
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O105" s="12"/>
     </row>
-    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20</v>
       </c>
@@ -7055,11 +7072,11 @@
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O106" s="12"/>
     </row>
-    <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20</v>
       </c>
@@ -7099,11 +7116,11 @@
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O107" s="12"/>
     </row>
-    <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20</v>
       </c>
@@ -7143,11 +7160,11 @@
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O108" s="12"/>
     </row>
-    <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20</v>
       </c>
@@ -7187,11 +7204,11 @@
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O109" s="12"/>
     </row>
-    <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20</v>
       </c>
@@ -7231,11 +7248,11 @@
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O110" s="12"/>
     </row>
-    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>21</v>
       </c>
@@ -7278,11 +7295,11 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O111" s="12"/>
     </row>
-    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>21</v>
       </c>
@@ -7322,10 +7339,10 @@
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>21</v>
       </c>
@@ -7365,10 +7382,10 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>21</v>
       </c>
@@ -7408,10 +7425,10 @@
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>21</v>
       </c>
@@ -7451,10 +7468,10 @@
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>21</v>
       </c>
@@ -7494,10 +7511,10 @@
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>21</v>
       </c>
@@ -7537,10 +7554,10 @@
         <v>1</v>
       </c>
       <c r="N117" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>21</v>
       </c>
@@ -7580,10 +7597,10 @@
         <v>1</v>
       </c>
       <c r="N118" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>21</v>
       </c>
@@ -7623,10 +7640,10 @@
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>21</v>
       </c>
@@ -7666,10 +7683,10 @@
         <v>1</v>
       </c>
       <c r="N120" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>21</v>
       </c>
@@ -7709,10 +7726,10 @@
         <v>1</v>
       </c>
       <c r="N121" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>21</v>
       </c>
@@ -7752,10 +7769,10 @@
         <v>1</v>
       </c>
       <c r="N122" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>21</v>
       </c>
@@ -7795,10 +7812,10 @@
         <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>21</v>
       </c>
@@ -7838,10 +7855,10 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21</v>
       </c>
@@ -7881,10 +7898,10 @@
         <v>1</v>
       </c>
       <c r="N125" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>21</v>
       </c>
@@ -7924,10 +7941,10 @@
         <v>1</v>
       </c>
       <c r="N126" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>21</v>
       </c>
@@ -7967,10 +7984,10 @@
         <v>1</v>
       </c>
       <c r="N127" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>22</v>
       </c>
@@ -8013,11 +8030,11 @@
         <v>1</v>
       </c>
       <c r="N128" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O128" s="12"/>
     </row>
-    <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>22</v>
       </c>
@@ -8057,11 +8074,11 @@
         <v>1</v>
       </c>
       <c r="N129" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O129" s="12"/>
     </row>
-    <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>22</v>
       </c>
@@ -8101,11 +8118,11 @@
         <v>1</v>
       </c>
       <c r="N130" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O130" s="12"/>
     </row>
-    <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>22</v>
       </c>
@@ -8145,11 +8162,11 @@
         <v>1</v>
       </c>
       <c r="N131" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O131" s="12"/>
     </row>
-    <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>22</v>
       </c>
@@ -8189,11 +8206,11 @@
         <v>1</v>
       </c>
       <c r="N132" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>22</v>
       </c>
@@ -8233,11 +8250,11 @@
         <v>1</v>
       </c>
       <c r="N133" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>22</v>
       </c>
@@ -8277,11 +8294,11 @@
         <v>1</v>
       </c>
       <c r="N134" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>22</v>
       </c>
@@ -8321,11 +8338,11 @@
         <v>1</v>
       </c>
       <c r="N135" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>22</v>
       </c>
@@ -8365,11 +8382,11 @@
         <v>1</v>
       </c>
       <c r="N136" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>22</v>
       </c>
@@ -8409,11 +8426,11 @@
         <v>1</v>
       </c>
       <c r="N137" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>22</v>
       </c>
@@ -8453,11 +8470,11 @@
         <v>1</v>
       </c>
       <c r="N138" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>23</v>
       </c>
@@ -8500,11 +8517,11 @@
         <v>1</v>
       </c>
       <c r="N139" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O139" s="12"/>
     </row>
-    <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>23</v>
       </c>
@@ -8544,10 +8561,10 @@
         <v>1</v>
       </c>
       <c r="N140" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>23</v>
       </c>
@@ -8587,10 +8604,10 @@
         <v>1</v>
       </c>
       <c r="N141" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>23</v>
       </c>
@@ -8630,10 +8647,10 @@
         <v>1</v>
       </c>
       <c r="N142" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>23</v>
       </c>
@@ -8673,10 +8690,10 @@
         <v>1</v>
       </c>
       <c r="N143" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>23</v>
       </c>
@@ -8716,10 +8733,10 @@
         <v>1</v>
       </c>
       <c r="N144" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>23</v>
       </c>
@@ -8759,10 +8776,10 @@
         <v>1</v>
       </c>
       <c r="N145" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>23</v>
       </c>
@@ -8802,10 +8819,10 @@
         <v>1</v>
       </c>
       <c r="N146" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>23</v>
       </c>
@@ -8845,10 +8862,10 @@
         <v>1</v>
       </c>
       <c r="N147" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>23</v>
       </c>
@@ -8888,10 +8905,10 @@
         <v>1</v>
       </c>
       <c r="N148" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>23</v>
       </c>
@@ -8931,10 +8948,10 @@
         <v>1</v>
       </c>
       <c r="N149" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>23</v>
       </c>
@@ -8974,10 +8991,10 @@
         <v>1</v>
       </c>
       <c r="N150" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24</v>
       </c>
@@ -9017,10 +9034,10 @@
         <v>0</v>
       </c>
       <c r="N151" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24</v>
       </c>
@@ -9060,10 +9077,10 @@
         <v>0</v>
       </c>
       <c r="N152" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24</v>
       </c>
@@ -9103,10 +9120,10 @@
         <v>0</v>
       </c>
       <c r="N153" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24</v>
       </c>
@@ -9146,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="N154" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24</v>
       </c>
@@ -9189,10 +9206,10 @@
         <v>0</v>
       </c>
       <c r="N155" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>25</v>
       </c>
@@ -9224,7 +9241,7 @@
         <v>432</v>
       </c>
       <c r="K156" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L156">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -9235,10 +9252,10 @@
         <v>1</v>
       </c>
       <c r="N156" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>25</v>
       </c>
@@ -9278,10 +9295,10 @@
         <v>1</v>
       </c>
       <c r="N157" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>25</v>
       </c>
@@ -9321,10 +9338,10 @@
         <v>1</v>
       </c>
       <c r="N158" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>25</v>
       </c>
@@ -9364,10 +9381,10 @@
         <v>1</v>
       </c>
       <c r="N159" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>25</v>
       </c>
@@ -9407,10 +9424,10 @@
         <v>1</v>
       </c>
       <c r="N160" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>25</v>
       </c>
@@ -9450,10 +9467,10 @@
         <v>1</v>
       </c>
       <c r="N161" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>25</v>
       </c>
@@ -9493,10 +9510,10 @@
         <v>1</v>
       </c>
       <c r="N162" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>25</v>
       </c>
@@ -9536,10 +9553,10 @@
         <v>1</v>
       </c>
       <c r="N163" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>26</v>
       </c>
@@ -9571,7 +9588,7 @@
         <v>433</v>
       </c>
       <c r="K164" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L164">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -9582,10 +9599,10 @@
         <v>1</v>
       </c>
       <c r="N164" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>26</v>
       </c>
@@ -9625,10 +9642,10 @@
         <v>1</v>
       </c>
       <c r="N165" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>26</v>
       </c>
@@ -9668,10 +9685,10 @@
         <v>1</v>
       </c>
       <c r="N166" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>26</v>
       </c>
@@ -9711,10 +9728,10 @@
         <v>1</v>
       </c>
       <c r="N167" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>26</v>
       </c>
@@ -9754,10 +9771,10 @@
         <v>1</v>
       </c>
       <c r="N168" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>26</v>
       </c>
@@ -9797,10 +9814,10 @@
         <v>1</v>
       </c>
       <c r="N169" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>26</v>
       </c>
@@ -9840,10 +9857,10 @@
         <v>1</v>
       </c>
       <c r="N170" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>26</v>
       </c>
@@ -9883,10 +9900,10 @@
         <v>1</v>
       </c>
       <c r="N171" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>26</v>
       </c>
@@ -9926,10 +9943,10 @@
         <v>1</v>
       </c>
       <c r="N172" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>26</v>
       </c>
@@ -9969,10 +9986,10 @@
         <v>1</v>
       </c>
       <c r="N173" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>27</v>
       </c>
@@ -10012,11 +10029,11 @@
         <v>1</v>
       </c>
       <c r="N174" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O174" s="12"/>
     </row>
-    <row r="175" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -10056,11 +10073,11 @@
         <v>1</v>
       </c>
       <c r="N175" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O175" s="12"/>
     </row>
-    <row r="176" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>27</v>
       </c>
@@ -10100,11 +10117,11 @@
         <v>1</v>
       </c>
       <c r="N176" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O176" s="12"/>
     </row>
-    <row r="177" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>27</v>
       </c>
@@ -10144,11 +10161,11 @@
         <v>1</v>
       </c>
       <c r="N177" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O177" s="12"/>
     </row>
-    <row r="178" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>27</v>
       </c>
@@ -10188,11 +10205,11 @@
         <v>1</v>
       </c>
       <c r="N178" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O178" s="12"/>
     </row>
-    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>27</v>
       </c>
@@ -10232,11 +10249,11 @@
         <v>1</v>
       </c>
       <c r="N179" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O179" s="12"/>
     </row>
-    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>27</v>
       </c>
@@ -10276,11 +10293,11 @@
         <v>1</v>
       </c>
       <c r="N180" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O180" s="12"/>
     </row>
-    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>27</v>
       </c>
@@ -10312,7 +10329,7 @@
         <v>317</v>
       </c>
       <c r="K181" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L181">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -10323,11 +10340,11 @@
         <v>1</v>
       </c>
       <c r="N181" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O181" s="12"/>
     </row>
-    <row r="182" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>27</v>
       </c>
@@ -10367,11 +10384,11 @@
         <v>1</v>
       </c>
       <c r="N182" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O182" s="12"/>
     </row>
-    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>28</v>
       </c>
@@ -10411,11 +10428,11 @@
         <v>1</v>
       </c>
       <c r="N183" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O183" s="12"/>
     </row>
-    <row r="184" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>28</v>
       </c>
@@ -10455,10 +10472,10 @@
         <v>1</v>
       </c>
       <c r="N184" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>28</v>
       </c>
@@ -10498,10 +10515,10 @@
         <v>1</v>
       </c>
       <c r="N185" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>28</v>
       </c>
@@ -10533,7 +10550,7 @@
         <v>319</v>
       </c>
       <c r="K186" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L186">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -10544,10 +10561,10 @@
         <v>1</v>
       </c>
       <c r="N186" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>28</v>
       </c>
@@ -10587,10 +10604,10 @@
         <v>1</v>
       </c>
       <c r="N187" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>28</v>
       </c>
@@ -10630,10 +10647,10 @@
         <v>1</v>
       </c>
       <c r="N188" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>29</v>
       </c>
@@ -10673,10 +10690,10 @@
         <v>0</v>
       </c>
       <c r="N189" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>29</v>
       </c>
@@ -10716,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="N190" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>29</v>
       </c>
@@ -10759,10 +10776,10 @@
         <v>0</v>
       </c>
       <c r="N191" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>29</v>
       </c>
@@ -10802,10 +10819,10 @@
         <v>0</v>
       </c>
       <c r="N192" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>29</v>
       </c>
@@ -10845,10 +10862,10 @@
         <v>0</v>
       </c>
       <c r="N193" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>29</v>
       </c>
@@ -10888,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="N194" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>29</v>
       </c>
@@ -10931,10 +10948,10 @@
         <v>0</v>
       </c>
       <c r="N195" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>29</v>
       </c>
@@ -10974,10 +10991,10 @@
         <v>0</v>
       </c>
       <c r="N196" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>30</v>
       </c>
@@ -11017,10 +11034,10 @@
         <v>1</v>
       </c>
       <c r="N197" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>30</v>
       </c>
@@ -11060,10 +11077,10 @@
         <v>1</v>
       </c>
       <c r="N198" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>30</v>
       </c>
@@ -11103,10 +11120,10 @@
         <v>1</v>
       </c>
       <c r="N199" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>30</v>
       </c>
@@ -11146,10 +11163,10 @@
         <v>1</v>
       </c>
       <c r="N200" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>30</v>
       </c>
@@ -11189,10 +11206,10 @@
         <v>1</v>
       </c>
       <c r="N201" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>30</v>
       </c>
@@ -11224,7 +11241,7 @@
         <v>322</v>
       </c>
       <c r="K202" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L202">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -11235,10 +11252,10 @@
         <v>1</v>
       </c>
       <c r="N202" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>30</v>
       </c>
@@ -11278,10 +11295,10 @@
         <v>1</v>
       </c>
       <c r="N203" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>30</v>
       </c>
@@ -11321,10 +11338,10 @@
         <v>1</v>
       </c>
       <c r="N204" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>31</v>
       </c>
@@ -11367,7 +11384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>32</v>
       </c>
@@ -11410,7 +11427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>33</v>
       </c>
@@ -11450,10 +11467,10 @@
         <v>1</v>
       </c>
       <c r="N207" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>33</v>
       </c>
@@ -11493,10 +11510,10 @@
         <v>1</v>
       </c>
       <c r="N208" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>33</v>
       </c>
@@ -11536,10 +11553,10 @@
         <v>1</v>
       </c>
       <c r="N209" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>33</v>
       </c>
@@ -11579,10 +11596,10 @@
         <v>1</v>
       </c>
       <c r="N210" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>33</v>
       </c>
@@ -11622,10 +11639,10 @@
         <v>1</v>
       </c>
       <c r="N211" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>33</v>
       </c>
@@ -11665,10 +11682,10 @@
         <v>1</v>
       </c>
       <c r="N212" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>33</v>
       </c>
@@ -11708,10 +11725,10 @@
         <v>1</v>
       </c>
       <c r="N213" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>33</v>
       </c>
@@ -11743,7 +11760,7 @@
         <v>239</v>
       </c>
       <c r="K214" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L214">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -11754,11 +11771,11 @@
         <v>1</v>
       </c>
       <c r="N214" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O214" s="12"/>
     </row>
-    <row r="215" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>33</v>
       </c>
@@ -11798,11 +11815,11 @@
         <v>1</v>
       </c>
       <c r="N215" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O215" s="12"/>
     </row>
-    <row r="216" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>33</v>
       </c>
@@ -11842,11 +11859,11 @@
         <v>1</v>
       </c>
       <c r="N216" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O216" s="12"/>
     </row>
-    <row r="217" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>34</v>
       </c>
@@ -11877,20 +11894,23 @@
       <c r="J217" t="s">
         <v>439</v>
       </c>
+      <c r="K217" t="s">
+        <v>565</v>
+      </c>
       <c r="L217">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M217">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
         <v>1</v>
       </c>
       <c r="N217" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O217" s="12"/>
     </row>
-    <row r="218" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>34</v>
       </c>
@@ -11930,11 +11950,11 @@
         <v>1</v>
       </c>
       <c r="N218" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O218" s="12"/>
     </row>
-    <row r="219" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>34</v>
       </c>
@@ -11974,11 +11994,11 @@
         <v>1</v>
       </c>
       <c r="N219" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O219" s="12"/>
     </row>
-    <row r="220" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>34</v>
       </c>
@@ -12018,11 +12038,11 @@
         <v>1</v>
       </c>
       <c r="N220" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O220" s="12"/>
     </row>
-    <row r="221" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>34</v>
       </c>
@@ -12062,11 +12082,11 @@
         <v>1</v>
       </c>
       <c r="N221" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O221" s="12"/>
     </row>
-    <row r="222" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>34</v>
       </c>
@@ -12106,11 +12126,11 @@
         <v>1</v>
       </c>
       <c r="N222" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O222" s="12"/>
     </row>
-    <row r="223" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>34</v>
       </c>
@@ -12141,23 +12161,20 @@
       <c r="J223" t="s">
         <v>238</v>
       </c>
-      <c r="K223" t="s">
-        <v>465</v>
-      </c>
       <c r="L223">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M223">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
         <v>1</v>
       </c>
       <c r="N223" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O223" s="12"/>
     </row>
-    <row r="224" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>34</v>
       </c>
@@ -12197,10 +12214,10 @@
         <v>1</v>
       </c>
       <c r="N224" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>34</v>
       </c>
@@ -12240,10 +12257,10 @@
         <v>1</v>
       </c>
       <c r="N225" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>34</v>
       </c>
@@ -12283,10 +12300,10 @@
         <v>1</v>
       </c>
       <c r="N226" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>35</v>
       </c>
@@ -12326,10 +12343,10 @@
         <v>1</v>
       </c>
       <c r="N227" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>35</v>
       </c>
@@ -12369,10 +12386,10 @@
         <v>1</v>
       </c>
       <c r="N228" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>35</v>
       </c>
@@ -12412,10 +12429,10 @@
         <v>1</v>
       </c>
       <c r="N229" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>35</v>
       </c>
@@ -12455,10 +12472,10 @@
         <v>1</v>
       </c>
       <c r="N230" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>35</v>
       </c>
@@ -12498,10 +12515,10 @@
         <v>1</v>
       </c>
       <c r="N231" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>35</v>
       </c>
@@ -12541,10 +12558,10 @@
         <v>1</v>
       </c>
       <c r="N232" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>35</v>
       </c>
@@ -12584,10 +12601,10 @@
         <v>1</v>
       </c>
       <c r="N233" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>35</v>
       </c>
@@ -12630,10 +12647,10 @@
         <v>1</v>
       </c>
       <c r="N234" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>35</v>
       </c>
@@ -12673,10 +12690,10 @@
         <v>1</v>
       </c>
       <c r="N235" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>35</v>
       </c>
@@ -12716,10 +12733,10 @@
         <v>1</v>
       </c>
       <c r="N236" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>36</v>
       </c>
@@ -12759,10 +12776,10 @@
         <v>1</v>
       </c>
       <c r="N237" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>36</v>
       </c>
@@ -12802,10 +12819,10 @@
         <v>1</v>
       </c>
       <c r="N238" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>36</v>
       </c>
@@ -12845,10 +12862,10 @@
         <v>1</v>
       </c>
       <c r="N239" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>36</v>
       </c>
@@ -12888,10 +12905,10 @@
         <v>1</v>
       </c>
       <c r="N240" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>36</v>
       </c>
@@ -12931,10 +12948,10 @@
         <v>1</v>
       </c>
       <c r="N241" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>36</v>
       </c>
@@ -12974,10 +12991,10 @@
         <v>1</v>
       </c>
       <c r="N242" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>36</v>
       </c>
@@ -13017,10 +13034,10 @@
         <v>1</v>
       </c>
       <c r="N243" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>36</v>
       </c>
@@ -13052,7 +13069,7 @@
         <v>236</v>
       </c>
       <c r="K244" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L244">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -13063,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="N244" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>36</v>
       </c>
@@ -13106,10 +13123,10 @@
         <v>1</v>
       </c>
       <c r="N245" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>37</v>
       </c>
@@ -13152,10 +13169,10 @@
         <v>1</v>
       </c>
       <c r="N246" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>37</v>
       </c>
@@ -13195,10 +13212,10 @@
         <v>1</v>
       </c>
       <c r="N247" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>37</v>
       </c>
@@ -13238,10 +13255,10 @@
         <v>1</v>
       </c>
       <c r="N248" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>37</v>
       </c>
@@ -13281,10 +13298,10 @@
         <v>1</v>
       </c>
       <c r="N249" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>37</v>
       </c>
@@ -13324,10 +13341,10 @@
         <v>1</v>
       </c>
       <c r="N250" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>37</v>
       </c>
@@ -13367,10 +13384,10 @@
         <v>1</v>
       </c>
       <c r="N251" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>38</v>
       </c>
@@ -13410,10 +13427,10 @@
         <v>0</v>
       </c>
       <c r="N252" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>38</v>
       </c>
@@ -13453,10 +13470,10 @@
         <v>0</v>
       </c>
       <c r="N253" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>38</v>
       </c>
@@ -13496,10 +13513,10 @@
         <v>0</v>
       </c>
       <c r="N254" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>38</v>
       </c>
@@ -13539,10 +13556,10 @@
         <v>0</v>
       </c>
       <c r="N255" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>38</v>
       </c>
@@ -13582,10 +13599,10 @@
         <v>0</v>
       </c>
       <c r="N256" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>38</v>
       </c>
@@ -13625,10 +13642,10 @@
         <v>0</v>
       </c>
       <c r="N257" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>39</v>
       </c>
@@ -13660,7 +13677,7 @@
         <v>444</v>
       </c>
       <c r="K258" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="L258">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -13671,10 +13688,10 @@
         <v>1</v>
       </c>
       <c r="N258" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>39</v>
       </c>
@@ -13714,10 +13731,10 @@
         <v>1</v>
       </c>
       <c r="N259" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>39</v>
       </c>
@@ -13757,10 +13774,10 @@
         <v>1</v>
       </c>
       <c r="N260" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>39</v>
       </c>
@@ -13800,10 +13817,10 @@
         <v>1</v>
       </c>
       <c r="N261" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>39</v>
       </c>
@@ -13843,10 +13860,10 @@
         <v>1</v>
       </c>
       <c r="N262" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>40</v>
       </c>
@@ -13878,7 +13895,7 @@
         <v>445</v>
       </c>
       <c r="K263" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L263">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -13889,10 +13906,10 @@
         <v>1</v>
       </c>
       <c r="N263" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>40</v>
       </c>
@@ -13932,10 +13949,10 @@
         <v>1</v>
       </c>
       <c r="N264" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>40</v>
       </c>
@@ -13975,10 +13992,10 @@
         <v>1</v>
       </c>
       <c r="N265" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>40</v>
       </c>
@@ -14018,10 +14035,10 @@
         <v>1</v>
       </c>
       <c r="N266" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>40</v>
       </c>
@@ -14061,10 +14078,10 @@
         <v>1</v>
       </c>
       <c r="N267" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>40</v>
       </c>
@@ -14104,10 +14121,10 @@
         <v>1</v>
       </c>
       <c r="N268" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>40</v>
       </c>
@@ -14147,10 +14164,10 @@
         <v>1</v>
       </c>
       <c r="N269" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>41</v>
       </c>
@@ -14190,10 +14207,10 @@
         <v>0</v>
       </c>
       <c r="N270" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>41</v>
       </c>
@@ -14233,10 +14250,10 @@
         <v>0</v>
       </c>
       <c r="N271" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>41</v>
       </c>
@@ -14276,10 +14293,10 @@
         <v>0</v>
       </c>
       <c r="N272" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>41</v>
       </c>
@@ -14319,10 +14336,10 @@
         <v>0</v>
       </c>
       <c r="N273" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>41</v>
       </c>
@@ -14362,10 +14379,10 @@
         <v>0</v>
       </c>
       <c r="N274" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>41</v>
       </c>
@@ -14405,10 +14422,10 @@
         <v>0</v>
       </c>
       <c r="N275" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>41</v>
       </c>
@@ -14448,10 +14465,10 @@
         <v>0</v>
       </c>
       <c r="N276" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>41</v>
       </c>
@@ -14491,10 +14508,10 @@
         <v>0</v>
       </c>
       <c r="N277" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>41</v>
       </c>
@@ -14534,10 +14551,10 @@
         <v>0</v>
       </c>
       <c r="N278" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>41</v>
       </c>
@@ -14577,10 +14594,10 @@
         <v>0</v>
       </c>
       <c r="N279" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>42</v>
       </c>
@@ -14611,23 +14628,20 @@
       <c r="J280" t="s">
         <v>447</v>
       </c>
-      <c r="K280" t="s">
-        <v>528</v>
-      </c>
       <c r="L280">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M280">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N280" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O280" s="12"/>
     </row>
-    <row r="281" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>42</v>
       </c>
@@ -14664,13 +14678,13 @@
       </c>
       <c r="M281">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N281" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>42</v>
       </c>
@@ -14707,13 +14721,13 @@
       </c>
       <c r="M282">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N282" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>42</v>
       </c>
@@ -14750,13 +14764,13 @@
       </c>
       <c r="M283">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N283" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>42</v>
       </c>
@@ -14793,13 +14807,13 @@
       </c>
       <c r="M284">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N284" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>42</v>
       </c>
@@ -14836,13 +14850,13 @@
       </c>
       <c r="M285">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N285" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>42</v>
       </c>
@@ -14879,13 +14893,13 @@
       </c>
       <c r="M286">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N286" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>42</v>
       </c>
@@ -14922,13 +14936,13 @@
       </c>
       <c r="M287">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N287" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>42</v>
       </c>
@@ -14965,13 +14979,13 @@
       </c>
       <c r="M288">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N288" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>42</v>
       </c>
@@ -15008,13 +15022,13 @@
       </c>
       <c r="M289">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N289" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>42</v>
       </c>
@@ -15051,13 +15065,13 @@
       </c>
       <c r="M290">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N290" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>43</v>
       </c>
@@ -15088,19 +15102,22 @@
       <c r="J291" t="s">
         <v>448</v>
       </c>
+      <c r="K291" t="s">
+        <v>566</v>
+      </c>
       <c r="L291">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M291">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
         <v>1</v>
       </c>
       <c r="N291" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>43</v>
       </c>
@@ -15140,10 +15157,10 @@
         <v>1</v>
       </c>
       <c r="N292" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>43</v>
       </c>
@@ -15183,10 +15200,10 @@
         <v>1</v>
       </c>
       <c r="N293" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>43</v>
       </c>
@@ -15226,10 +15243,10 @@
         <v>1</v>
       </c>
       <c r="N294" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>43</v>
       </c>
@@ -15269,10 +15286,10 @@
         <v>1</v>
       </c>
       <c r="N295" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>43</v>
       </c>
@@ -15303,23 +15320,20 @@
       <c r="J296" t="s">
         <v>248</v>
       </c>
-      <c r="K296" t="s">
-        <v>383</v>
-      </c>
       <c r="L296">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M296">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
         <v>1</v>
       </c>
       <c r="N296" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O296" s="12"/>
     </row>
-    <row r="297" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>43</v>
       </c>
@@ -15359,10 +15373,10 @@
         <v>1</v>
       </c>
       <c r="N297" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>43</v>
       </c>
@@ -15402,10 +15416,10 @@
         <v>1</v>
       </c>
       <c r="N298" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>43</v>
       </c>
@@ -15445,10 +15459,10 @@
         <v>1</v>
       </c>
       <c r="N299" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>43</v>
       </c>
@@ -15488,10 +15502,10 @@
         <v>1</v>
       </c>
       <c r="N300" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>43</v>
       </c>
@@ -15531,7 +15545,7 @@
         <v>1</v>
       </c>
       <c r="N301" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="302" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15565,16 +15579,19 @@
       <c r="J302" t="s">
         <v>449</v>
       </c>
+      <c r="K302" t="s">
+        <v>568</v>
+      </c>
       <c r="L302">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M302">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
         <v>1</v>
       </c>
       <c r="N302" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="303" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15617,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="N303" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="304" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15660,7 +15677,7 @@
         <v>1</v>
       </c>
       <c r="N304" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="305" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15703,7 +15720,7 @@
         <v>1</v>
       </c>
       <c r="N305" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="306" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15746,7 +15763,7 @@
         <v>1</v>
       </c>
       <c r="N306" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="307" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15789,7 +15806,7 @@
         <v>1</v>
       </c>
       <c r="N307" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="308" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15832,7 +15849,7 @@
         <v>1</v>
       </c>
       <c r="N308" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="309" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15875,7 +15892,7 @@
         <v>1</v>
       </c>
       <c r="N309" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="310" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15918,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="N310" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="311" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15961,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="N311" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="312" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15995,23 +16012,20 @@
       <c r="J312" t="s">
         <v>187</v>
       </c>
-      <c r="K312" t="s">
-        <v>187</v>
-      </c>
       <c r="L312">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M312">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
         <v>1</v>
       </c>
       <c r="N312" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O312" s="12"/>
     </row>
-    <row r="313" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>45</v>
       </c>
@@ -16042,20 +16056,23 @@
       <c r="J313" t="s">
         <v>450</v>
       </c>
+      <c r="K313" t="s">
+        <v>567</v>
+      </c>
       <c r="L313">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M313">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
         <v>1</v>
       </c>
       <c r="N313" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O313" s="12"/>
     </row>
-    <row r="314" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>45</v>
       </c>
@@ -16095,11 +16112,11 @@
         <v>1</v>
       </c>
       <c r="N314" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O314" s="12"/>
     </row>
-    <row r="315" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>45</v>
       </c>
@@ -16139,11 +16156,11 @@
         <v>1</v>
       </c>
       <c r="N315" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O315" s="12"/>
     </row>
-    <row r="316" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>45</v>
       </c>
@@ -16183,11 +16200,11 @@
         <v>1</v>
       </c>
       <c r="N316" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O316" s="12"/>
     </row>
-    <row r="317" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>45</v>
       </c>
@@ -16227,11 +16244,11 @@
         <v>1</v>
       </c>
       <c r="N317" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O317" s="12"/>
     </row>
-    <row r="318" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>45</v>
       </c>
@@ -16271,11 +16288,11 @@
         <v>1</v>
       </c>
       <c r="N318" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O318" s="12"/>
     </row>
-    <row r="319" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>45</v>
       </c>
@@ -16315,11 +16332,11 @@
         <v>1</v>
       </c>
       <c r="N319" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O319" s="12"/>
     </row>
-    <row r="320" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>45</v>
       </c>
@@ -16359,11 +16376,11 @@
         <v>1</v>
       </c>
       <c r="N320" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O320" s="12"/>
     </row>
-    <row r="321" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>45</v>
       </c>
@@ -16403,11 +16420,11 @@
         <v>1</v>
       </c>
       <c r="N321" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O321" s="12"/>
     </row>
-    <row r="322" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>45</v>
       </c>
@@ -16447,11 +16464,11 @@
         <v>1</v>
       </c>
       <c r="N322" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O322" s="12"/>
     </row>
-    <row r="323" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>45</v>
       </c>
@@ -16482,23 +16499,20 @@
       <c r="J323" t="s">
         <v>190</v>
       </c>
-      <c r="K323" t="s">
-        <v>190</v>
-      </c>
       <c r="L323">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M323">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
         <v>1</v>
       </c>
       <c r="N323" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O323" s="12"/>
     </row>
-    <row r="324" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>46</v>
       </c>
@@ -16538,10 +16552,10 @@
         <v>1</v>
       </c>
       <c r="N324" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>46</v>
       </c>
@@ -16584,11 +16598,11 @@
         <v>1</v>
       </c>
       <c r="N325" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O325" s="12"/>
     </row>
-    <row r="326" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>46</v>
       </c>
@@ -16628,11 +16642,11 @@
         <v>1</v>
       </c>
       <c r="N326" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O326" s="12"/>
     </row>
-    <row r="327" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>46</v>
       </c>
@@ -16672,11 +16686,11 @@
         <v>1</v>
       </c>
       <c r="N327" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O327" s="12"/>
     </row>
-    <row r="328" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>46</v>
       </c>
@@ -16716,11 +16730,11 @@
         <v>1</v>
       </c>
       <c r="N328" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O328" s="12"/>
     </row>
-    <row r="329" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>46</v>
       </c>
@@ -16760,11 +16774,11 @@
         <v>1</v>
       </c>
       <c r="N329" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O329" s="12"/>
     </row>
-    <row r="330" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>46</v>
       </c>
@@ -16804,11 +16818,11 @@
         <v>1</v>
       </c>
       <c r="N330" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O330" s="12"/>
     </row>
-    <row r="331" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>46</v>
       </c>
@@ -16848,11 +16862,11 @@
         <v>1</v>
       </c>
       <c r="N331" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O331" s="12"/>
     </row>
-    <row r="332" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>47</v>
       </c>
@@ -16896,7 +16910,7 @@
       </c>
       <c r="O332" s="12"/>
     </row>
-    <row r="333" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>48</v>
       </c>
@@ -16940,7 +16954,7 @@
       </c>
       <c r="O333" s="12"/>
     </row>
-    <row r="334" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>49</v>
       </c>
@@ -16980,11 +16994,11 @@
         <v>1</v>
       </c>
       <c r="N334" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O334" s="12"/>
     </row>
-    <row r="335" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>49</v>
       </c>
@@ -17027,11 +17041,11 @@
         <v>1</v>
       </c>
       <c r="N335" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O335" s="12"/>
     </row>
-    <row r="336" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>49</v>
       </c>
@@ -17071,10 +17085,10 @@
         <v>1</v>
       </c>
       <c r="N336" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>49</v>
       </c>
@@ -17114,10 +17128,10 @@
         <v>1</v>
       </c>
       <c r="N337" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="338" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>49</v>
       </c>
@@ -17157,10 +17171,10 @@
         <v>1</v>
       </c>
       <c r="N338" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="339" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>49</v>
       </c>
@@ -17200,10 +17214,10 @@
         <v>1</v>
       </c>
       <c r="N339" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>49</v>
       </c>
@@ -17243,10 +17257,10 @@
         <v>1</v>
       </c>
       <c r="N340" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="341" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>49</v>
       </c>
@@ -17286,10 +17300,10 @@
         <v>1</v>
       </c>
       <c r="N341" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>50</v>
       </c>
@@ -17329,10 +17343,10 @@
         <v>0</v>
       </c>
       <c r="N342" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="343" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>50</v>
       </c>
@@ -17372,10 +17386,10 @@
         <v>0</v>
       </c>
       <c r="N343" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>50</v>
       </c>
@@ -17415,10 +17429,10 @@
         <v>0</v>
       </c>
       <c r="N344" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="345" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>50</v>
       </c>
@@ -17458,10 +17472,10 @@
         <v>0</v>
       </c>
       <c r="N345" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="346" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>50</v>
       </c>
@@ -17501,10 +17515,10 @@
         <v>0</v>
       </c>
       <c r="N346" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="347" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>50</v>
       </c>
@@ -17544,10 +17558,10 @@
         <v>0</v>
       </c>
       <c r="N347" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>50</v>
       </c>
@@ -17587,10 +17601,10 @@
         <v>0</v>
       </c>
       <c r="N348" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="349" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>50</v>
       </c>
@@ -17630,10 +17644,10 @@
         <v>0</v>
       </c>
       <c r="N349" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>50</v>
       </c>
@@ -17673,10 +17687,10 @@
         <v>0</v>
       </c>
       <c r="N350" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="351" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>50</v>
       </c>
@@ -17716,10 +17730,10 @@
         <v>0</v>
       </c>
       <c r="N351" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="352" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>50</v>
       </c>
@@ -17759,10 +17773,10 @@
         <v>0</v>
       </c>
       <c r="N352" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="353" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>51</v>
       </c>
@@ -17802,10 +17816,10 @@
         <v>1</v>
       </c>
       <c r="N353" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="354" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>51</v>
       </c>
@@ -17845,10 +17859,10 @@
         <v>1</v>
       </c>
       <c r="N354" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="355" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>51</v>
       </c>
@@ -17888,10 +17902,10 @@
         <v>1</v>
       </c>
       <c r="N355" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="356" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>51</v>
       </c>
@@ -17931,10 +17945,10 @@
         <v>1</v>
       </c>
       <c r="N356" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="357" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>51</v>
       </c>
@@ -17977,11 +17991,11 @@
         <v>1</v>
       </c>
       <c r="N357" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O357" s="12"/>
     </row>
-    <row r="358" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>51</v>
       </c>
@@ -18021,10 +18035,10 @@
         <v>1</v>
       </c>
       <c r="N358" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="359" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>52</v>
       </c>
@@ -18064,11 +18078,11 @@
         <v>1</v>
       </c>
       <c r="N359" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O359" s="12"/>
     </row>
-    <row r="360" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>52</v>
       </c>
@@ -18108,11 +18122,11 @@
         <v>1</v>
       </c>
       <c r="N360" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O360" s="12"/>
     </row>
-    <row r="361" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>52</v>
       </c>
@@ -18152,11 +18166,11 @@
         <v>1</v>
       </c>
       <c r="N361" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O361" s="12"/>
     </row>
-    <row r="362" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>52</v>
       </c>
@@ -18196,11 +18210,11 @@
         <v>1</v>
       </c>
       <c r="N362" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O362" s="12"/>
     </row>
-    <row r="363" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>52</v>
       </c>
@@ -18243,11 +18257,11 @@
         <v>1</v>
       </c>
       <c r="N363" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O363" s="12"/>
     </row>
-    <row r="364" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>52</v>
       </c>
@@ -18287,11 +18301,11 @@
         <v>1</v>
       </c>
       <c r="N364" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O364" s="12"/>
     </row>
-    <row r="365" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>53</v>
       </c>
@@ -18331,11 +18345,11 @@
         <v>1</v>
       </c>
       <c r="N365" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O365" s="12"/>
     </row>
-    <row r="366" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>53</v>
       </c>
@@ -18375,10 +18389,10 @@
         <v>1</v>
       </c>
       <c r="N366" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="367" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>53</v>
       </c>
@@ -18418,10 +18432,10 @@
         <v>1</v>
       </c>
       <c r="N367" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="368" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>53</v>
       </c>
@@ -18461,10 +18475,10 @@
         <v>1</v>
       </c>
       <c r="N368" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="369" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>53</v>
       </c>
@@ -18507,10 +18521,10 @@
         <v>1</v>
       </c>
       <c r="N369" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="370" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>53</v>
       </c>
@@ -18550,10 +18564,10 @@
         <v>1</v>
       </c>
       <c r="N370" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="371" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>54</v>
       </c>
@@ -18596,11 +18610,11 @@
         <v>1</v>
       </c>
       <c r="N371" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O371" s="12"/>
     </row>
-    <row r="372" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>54</v>
       </c>
@@ -18640,11 +18654,11 @@
         <v>1</v>
       </c>
       <c r="N372" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O372" s="12"/>
     </row>
-    <row r="373" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>54</v>
       </c>
@@ -18684,11 +18698,11 @@
         <v>1</v>
       </c>
       <c r="N373" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O373" s="12"/>
     </row>
-    <row r="374" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>54</v>
       </c>
@@ -18728,11 +18742,11 @@
         <v>1</v>
       </c>
       <c r="N374" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O374" s="12"/>
     </row>
-    <row r="375" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>54</v>
       </c>
@@ -18772,11 +18786,11 @@
         <v>1</v>
       </c>
       <c r="N375" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O375" s="12"/>
     </row>
-    <row r="376" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>55</v>
       </c>
@@ -18816,11 +18830,11 @@
         <v>1</v>
       </c>
       <c r="N376" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O376" s="12"/>
     </row>
-    <row r="377" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>55</v>
       </c>
@@ -18863,11 +18877,11 @@
         <v>1</v>
       </c>
       <c r="N377" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O377" s="12"/>
     </row>
-    <row r="378" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>55</v>
       </c>
@@ -18907,10 +18921,10 @@
         <v>1</v>
       </c>
       <c r="N378" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="379" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>55</v>
       </c>
@@ -18950,10 +18964,10 @@
         <v>1</v>
       </c>
       <c r="N379" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="380" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>55</v>
       </c>
@@ -18993,10 +19007,10 @@
         <v>1</v>
       </c>
       <c r="N380" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="381" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>55</v>
       </c>
@@ -19036,10 +19050,10 @@
         <v>1</v>
       </c>
       <c r="N381" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="382" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>55</v>
       </c>
@@ -19079,10 +19093,10 @@
         <v>1</v>
       </c>
       <c r="N382" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="383" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>55</v>
       </c>
@@ -19122,10 +19136,10 @@
         <v>1</v>
       </c>
       <c r="N383" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="384" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>55</v>
       </c>
@@ -19165,10 +19179,10 @@
         <v>1</v>
       </c>
       <c r="N384" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="385" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>55</v>
       </c>
@@ -19208,10 +19222,10 @@
         <v>1</v>
       </c>
       <c r="N385" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="386" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>55</v>
       </c>
@@ -19251,10 +19265,10 @@
         <v>1</v>
       </c>
       <c r="N386" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>56</v>
       </c>
@@ -19294,10 +19308,10 @@
         <v>0</v>
       </c>
       <c r="N387" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="388" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>56</v>
       </c>
@@ -19337,10 +19351,10 @@
         <v>0</v>
       </c>
       <c r="N388" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="389" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>56</v>
       </c>
@@ -19380,10 +19394,10 @@
         <v>0</v>
       </c>
       <c r="N389" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="390" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>56</v>
       </c>
@@ -19423,10 +19437,10 @@
         <v>0</v>
       </c>
       <c r="N390" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="391" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>56</v>
       </c>
@@ -19466,10 +19480,10 @@
         <v>0</v>
       </c>
       <c r="N391" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="392" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>56</v>
       </c>
@@ -19509,10 +19523,10 @@
         <v>0</v>
       </c>
       <c r="N392" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>56</v>
       </c>
@@ -19552,10 +19566,10 @@
         <v>0</v>
       </c>
       <c r="N393" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="394" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>56</v>
       </c>
@@ -19595,11 +19609,11 @@
         <v>0</v>
       </c>
       <c r="N394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O394" s="12"/>
     </row>
-    <row r="395" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>56</v>
       </c>
@@ -19639,11 +19653,11 @@
         <v>0</v>
       </c>
       <c r="N395" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O395" s="12"/>
     </row>
-    <row r="396" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>56</v>
       </c>
@@ -19683,11 +19697,11 @@
         <v>0</v>
       </c>
       <c r="N396" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O396" s="12"/>
     </row>
-    <row r="397" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>56</v>
       </c>
@@ -19727,11 +19741,11 @@
         <v>0</v>
       </c>
       <c r="N397" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O397" s="12"/>
     </row>
-    <row r="398" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>57</v>
       </c>
@@ -19762,20 +19776,23 @@
       <c r="J398" t="s">
         <v>460</v>
       </c>
+      <c r="K398" t="s">
+        <v>564</v>
+      </c>
       <c r="L398">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M398">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N398" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O398" s="12"/>
     </row>
-    <row r="399" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>57</v>
       </c>
@@ -19812,14 +19829,14 @@
       </c>
       <c r="M399">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N399" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O399" s="12"/>
     </row>
-    <row r="400" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>57</v>
       </c>
@@ -19856,14 +19873,14 @@
       </c>
       <c r="M400">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N400" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O400" s="12"/>
     </row>
-    <row r="401" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>57</v>
       </c>
@@ -19900,14 +19917,14 @@
       </c>
       <c r="M401">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N401" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O401" s="12"/>
     </row>
-    <row r="402" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>57</v>
       </c>
@@ -19944,14 +19961,14 @@
       </c>
       <c r="M402">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N402" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O402" s="12"/>
     </row>
-    <row r="403" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>57</v>
       </c>
@@ -19988,14 +20005,14 @@
       </c>
       <c r="M403">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N403" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O403" s="12"/>
     </row>
-    <row r="404" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>57</v>
       </c>
@@ -20032,14 +20049,14 @@
       </c>
       <c r="M404">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N404" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O404" s="12"/>
     </row>
-    <row r="405" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>57</v>
       </c>
@@ -20076,14 +20093,14 @@
       </c>
       <c r="M405">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N405" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O405" s="12"/>
     </row>
-    <row r="406" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>57</v>
       </c>
@@ -20120,14 +20137,14 @@
       </c>
       <c r="M406">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N406" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O406" s="12"/>
     </row>
-    <row r="407" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>57</v>
       </c>
@@ -20164,14 +20181,14 @@
       </c>
       <c r="M407">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N407" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O407" s="12"/>
     </row>
-    <row r="408" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>57</v>
       </c>
@@ -20208,14 +20225,14 @@
       </c>
       <c r="M408">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Pin Name],Tabelle1[[#This Row],[Pin Name]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N408" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O408" s="12"/>
     </row>
-    <row r="409" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>58</v>
       </c>
@@ -20255,11 +20272,11 @@
         <v>0</v>
       </c>
       <c r="N409" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O409" s="12"/>
     </row>
-    <row r="410" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>58</v>
       </c>
@@ -20299,11 +20316,11 @@
         <v>0</v>
       </c>
       <c r="N410" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O410" s="12"/>
     </row>
-    <row r="411" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>58</v>
       </c>
@@ -20343,11 +20360,11 @@
         <v>0</v>
       </c>
       <c r="N411" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O411" s="12"/>
     </row>
-    <row r="412" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>58</v>
       </c>
@@ -20387,11 +20404,11 @@
         <v>0</v>
       </c>
       <c r="N412" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O412" s="12"/>
     </row>
-    <row r="413" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>58</v>
       </c>
@@ -20431,11 +20448,11 @@
         <v>0</v>
       </c>
       <c r="N413" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O413" s="12"/>
     </row>
-    <row r="414" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>58</v>
       </c>
@@ -20475,11 +20492,11 @@
         <v>0</v>
       </c>
       <c r="N414" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O414" s="12"/>
     </row>
-    <row r="415" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>58</v>
       </c>
@@ -20519,11 +20536,11 @@
         <v>0</v>
       </c>
       <c r="N415" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O415" s="12"/>
     </row>
-    <row r="416" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>58</v>
       </c>
@@ -20563,11 +20580,11 @@
         <v>0</v>
       </c>
       <c r="N416" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O416" s="12"/>
     </row>
-    <row r="417" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>58</v>
       </c>
@@ -20607,11 +20624,11 @@
         <v>0</v>
       </c>
       <c r="N417" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O417" s="12"/>
     </row>
-    <row r="418" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>58</v>
       </c>
@@ -20651,11 +20668,11 @@
         <v>0</v>
       </c>
       <c r="N418" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O418" s="12"/>
     </row>
-    <row r="419" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>59</v>
       </c>
@@ -20695,11 +20712,11 @@
         <v>0</v>
       </c>
       <c r="N419" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O419" s="12"/>
     </row>
-    <row r="420" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>59</v>
       </c>
@@ -20739,11 +20756,11 @@
         <v>0</v>
       </c>
       <c r="N420" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O420" s="12"/>
     </row>
-    <row r="421" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>59</v>
       </c>
@@ -20783,11 +20800,11 @@
         <v>0</v>
       </c>
       <c r="N421" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O421" s="12"/>
     </row>
-    <row r="422" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>59</v>
       </c>
@@ -20827,11 +20844,11 @@
         <v>0</v>
       </c>
       <c r="N422" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O422" s="12"/>
     </row>
-    <row r="423" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>59</v>
       </c>
@@ -20871,11 +20888,11 @@
         <v>0</v>
       </c>
       <c r="N423" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O423" s="12"/>
     </row>
-    <row r="424" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>59</v>
       </c>
@@ -20915,11 +20932,11 @@
         <v>0</v>
       </c>
       <c r="N424" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O424" s="12"/>
     </row>
-    <row r="425" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>59</v>
       </c>
@@ -20959,11 +20976,11 @@
         <v>0</v>
       </c>
       <c r="N425" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O425" s="12"/>
     </row>
-    <row r="426" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>59</v>
       </c>
@@ -21003,11 +21020,11 @@
         <v>0</v>
       </c>
       <c r="N426" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O426" s="12"/>
     </row>
-    <row r="427" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>59</v>
       </c>
@@ -21047,11 +21064,11 @@
         <v>0</v>
       </c>
       <c r="N427" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O427" s="12"/>
     </row>
-    <row r="428" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>59</v>
       </c>
@@ -21091,11 +21108,11 @@
         <v>0</v>
       </c>
       <c r="N428" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O428" s="12"/>
     </row>
-    <row r="429" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>60</v>
       </c>
@@ -21127,7 +21144,7 @@
         <v>6</v>
       </c>
       <c r="K429" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L429">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -21138,11 +21155,11 @@
         <v>1</v>
       </c>
       <c r="N429" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O429" s="12"/>
     </row>
-    <row r="430" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>61</v>
       </c>
@@ -21174,7 +21191,7 @@
         <v>463</v>
       </c>
       <c r="K430" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L430">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -21185,10 +21202,10 @@
         <v>1</v>
       </c>
       <c r="N430" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="431" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>61</v>
       </c>
@@ -21228,10 +21245,10 @@
         <v>1</v>
       </c>
       <c r="N431" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="432" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>61</v>
       </c>
@@ -21271,10 +21288,10 @@
         <v>1</v>
       </c>
       <c r="N432" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="433" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>61</v>
       </c>
@@ -21314,10 +21331,10 @@
         <v>1</v>
       </c>
       <c r="N433" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="434" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>61</v>
       </c>
@@ -21357,10 +21374,10 @@
         <v>1</v>
       </c>
       <c r="N434" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="435" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>61</v>
       </c>
@@ -21400,10 +21417,10 @@
         <v>1</v>
       </c>
       <c r="N435" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="436" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>61</v>
       </c>
@@ -21443,10 +21460,10 @@
         <v>1</v>
       </c>
       <c r="N436" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="437" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>61</v>
       </c>
@@ -21486,10 +21503,10 @@
         <v>1</v>
       </c>
       <c r="N437" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="438" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>61</v>
       </c>
@@ -21529,10 +21546,10 @@
         <v>1</v>
       </c>
       <c r="N438" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="439" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>61</v>
       </c>
@@ -21572,10 +21589,10 @@
         <v>1</v>
       </c>
       <c r="N439" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="440" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>61</v>
       </c>
@@ -21615,10 +21632,10 @@
         <v>1</v>
       </c>
       <c r="N440" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="441" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>62</v>
       </c>
@@ -21650,7 +21667,7 @@
         <v>464</v>
       </c>
       <c r="K441" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L441">
         <f>COUNTIFS(Tabelle1[Attached Signal],"&lt;&gt;"&amp;"",Tabelle1[Alternate Function],Tabelle1[[#This Row],[Alternate Function]])</f>
@@ -21661,10 +21678,10 @@
         <v>1</v>
       </c>
       <c r="N441" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="442" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>62</v>
       </c>
@@ -21704,10 +21721,10 @@
         <v>1</v>
       </c>
       <c r="N442" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="443" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>62</v>
       </c>
@@ -21747,10 +21764,10 @@
         <v>1</v>
       </c>
       <c r="N443" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="444" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>62</v>
       </c>
@@ -21790,10 +21807,10 @@
         <v>1</v>
       </c>
       <c r="N444" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="445" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>62</v>
       </c>
@@ -21833,10 +21850,10 @@
         <v>1</v>
       </c>
       <c r="N445" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="446" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>62</v>
       </c>
@@ -21876,10 +21893,10 @@
         <v>1</v>
       </c>
       <c r="N446" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="447" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>62</v>
       </c>
@@ -21919,10 +21936,10 @@
         <v>1</v>
       </c>
       <c r="N447" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="448" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>62</v>
       </c>
@@ -21962,10 +21979,10 @@
         <v>1</v>
       </c>
       <c r="N448" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="449" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>62</v>
       </c>
@@ -22005,10 +22022,10 @@
         <v>1</v>
       </c>
       <c r="N449" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="450" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>62</v>
       </c>
@@ -22048,10 +22065,10 @@
         <v>1</v>
       </c>
       <c r="N450" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="451" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>63</v>
       </c>
@@ -22094,7 +22111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>64</v>
       </c>
@@ -22166,7 +22183,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B982D21-6910-42B0-BFFB-A07BF2D9D2EC}">
           <x14:formula1>
-            <xm:f>Signals!$A$6:$A$50</xm:f>
+            <xm:f>Signals!$A$6:$A$55</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K452</xm:sqref>
         </x14:dataValidation>
@@ -22178,10 +22195,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C401FA3-E7AE-4D6D-A712-A575441449E4}">
-  <dimension ref="A5:C49"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A5:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22203,11 +22221,11 @@
       </c>
       <c r="B6">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A6)</f>
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" t="e">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A6,Tabelle1[Attached Signal],0))</f>
-        <v>PA10</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -22218,7 +22236,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A7)</f>
         <v>1</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A7,Tabelle1[Attached Signal],0))</f>
         <v>PC0</v>
       </c>
@@ -22231,7 +22249,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A8)</f>
         <v>1</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A8,Tabelle1[Attached Signal],0))</f>
         <v>PC1</v>
       </c>
@@ -22244,7 +22262,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A9)</f>
         <v>1</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A9,Tabelle1[Attached Signal],0))</f>
         <v>PC2</v>
       </c>
@@ -22257,7 +22275,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A10)</f>
         <v>1</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A10,Tabelle1[Attached Signal],0))</f>
         <v>PC3</v>
       </c>
@@ -22270,7 +22288,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A11)</f>
         <v>1</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A11,Tabelle1[Attached Signal],0))</f>
         <v>PA0</v>
       </c>
@@ -22283,7 +22301,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A12)</f>
         <v>1</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A12,Tabelle1[Attached Signal],0))</f>
         <v>PA4</v>
       </c>
@@ -22296,20 +22314,20 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A13)</f>
         <v>1</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A13,Tabelle1[Attached Signal],0))</f>
         <v>PA1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B14">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A14)</f>
         <v>1</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A14,Tabelle1[Attached Signal],0))</f>
         <v>PB0</v>
       </c>
@@ -22322,7 +22340,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A15)</f>
         <v>1</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A15,Tabelle1[Attached Signal],0))</f>
         <v>PB3</v>
       </c>
@@ -22335,7 +22353,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A16)</f>
         <v>1</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A16,Tabelle1[Attached Signal],0))</f>
         <v>PA14</v>
       </c>
@@ -22348,7 +22366,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A17)</f>
         <v>1</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A17,Tabelle1[Attached Signal],0))</f>
         <v>PA13</v>
       </c>
@@ -22361,7 +22379,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A18)</f>
         <v>1</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A18,Tabelle1[Attached Signal],0))</f>
         <v>PC12</v>
       </c>
@@ -22374,7 +22392,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A19)</f>
         <v>1</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A19,Tabelle1[Attached Signal],0))</f>
         <v>PC11</v>
       </c>
@@ -22387,7 +22405,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A20)</f>
         <v>1</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A20,Tabelle1[Attached Signal],0))</f>
         <v>PC10</v>
       </c>
@@ -22400,7 +22418,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A21)</f>
         <v>1</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A21,Tabelle1[Attached Signal],0))</f>
         <v>PD2</v>
       </c>
@@ -22426,7 +22444,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A23)</f>
         <v>1</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A23,Tabelle1[Attached Signal],0))</f>
         <v>PA7</v>
       </c>
@@ -22439,7 +22457,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A24)</f>
         <v>1</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A24,Tabelle1[Attached Signal],0))</f>
         <v>PA2</v>
       </c>
@@ -22452,7 +22470,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A25)</f>
         <v>1</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A25,Tabelle1[Attached Signal],0))</f>
         <v>PA3</v>
       </c>
@@ -22465,7 +22483,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A26)</f>
         <v>1</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A26,Tabelle1[Attached Signal],0))</f>
         <v>PA6</v>
       </c>
@@ -22478,7 +22496,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A27)</f>
         <v>1</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A27,Tabelle1[Attached Signal],0))</f>
         <v>PC13(2)</v>
       </c>
@@ -22491,7 +22509,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A28)</f>
         <v>1</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A28,Tabelle1[Attached Signal],0))</f>
         <v>PC14 - OSC32_IN</v>
       </c>
@@ -22504,7 +22522,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A29)</f>
         <v>1</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A29,Tabelle1[Attached Signal],0))</f>
         <v>PC15 - OSC32_OUT(2)</v>
       </c>
@@ -22517,7 +22535,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A30)</f>
         <v>1</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A30,Tabelle1[Attached Signal],0))</f>
         <v>PF0-OSC_IN</v>
       </c>
@@ -22530,33 +22548,33 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A31)</f>
         <v>1</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A31,Tabelle1[Attached Signal],0))</f>
         <v>PF1 - OSC_OUT</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B32">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A32)</f>
         <v>1</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A32,Tabelle1[Attached Signal],0))</f>
         <v>PB11</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B33">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A33)</f>
         <v>1</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A33,Tabelle1[Attached Signal],0))</f>
         <v>PB2</v>
       </c>
@@ -22569,46 +22587,46 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A34)</f>
         <v>1</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A34,Tabelle1[Attached Signal],0))</f>
         <v>PB14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B35">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A35)</f>
         <v>1</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A35,Tabelle1[Attached Signal],0))</f>
         <v>PB1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B36">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A36)</f>
         <v>1</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A36,Tabelle1[Attached Signal],0))</f>
         <v>PB15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B37">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A37)</f>
         <v>1</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A37,Tabelle1[Attached Signal],0))</f>
         <v>NRST</v>
       </c>
@@ -22621,7 +22639,7 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A38)</f>
         <v>6</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A38,Tabelle1[Attached Signal],0))</f>
         <v>VBAT</v>
       </c>
@@ -22634,145 +22652,201 @@
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A39)</f>
         <v>5</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A39,Tabelle1[Attached Signal],0))</f>
         <v>VSSA</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B40">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A40)</f>
         <v>1</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A40,Tabelle1[Attached Signal],0))</f>
         <v>BOOT0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>190</v>
-      </c>
       <c r="B41">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A41)</f>
-        <v>1</v>
-      </c>
-      <c r="C41" t="str">
+        <v>0</v>
+      </c>
+      <c r="C41" t="e">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A41,Tabelle1[Attached Signal],0))</f>
-        <v>PA12</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>187</v>
-      </c>
       <c r="B42">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A42)</f>
-        <v>1</v>
-      </c>
-      <c r="C42" t="str">
+        <v>0</v>
+      </c>
+      <c r="C42" t="e">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A42,Tabelle1[Attached Signal],0))</f>
-        <v>PA11</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>528</v>
-      </c>
       <c r="B43">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A43)</f>
-        <v>1</v>
-      </c>
-      <c r="C43" t="str">
+        <v>0</v>
+      </c>
+      <c r="C43" t="e">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A43,Tabelle1[Attached Signal],0))</f>
-        <v>PA9</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B44">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A44)</f>
         <v>1</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A44,Tabelle1[Attached Signal],0))</f>
-        <v>PB8</v>
+        <v>PC8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B45">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A45)</f>
         <v>1</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A45,Tabelle1[Attached Signal],0))</f>
-        <v>PB9</v>
+        <v>PC9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B46">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A46)</f>
         <v>1</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A46,Tabelle1[Attached Signal],0))</f>
-        <v>PC5</v>
+        <v>PB9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B47">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A47)</f>
         <v>1</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A47,Tabelle1[Attached Signal],0))</f>
-        <v>PC6</v>
+        <v>PC5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B48">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A48)</f>
         <v>1</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A48,Tabelle1[Attached Signal],0))</f>
-        <v>PC8</v>
+        <v>PB8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B49">
         <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A49)</f>
         <v>1</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="13" t="str">
         <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A49,Tabelle1[Attached Signal],0))</f>
-        <v>PC9</v>
+        <v>PC6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>564</v>
+      </c>
+      <c r="B50">
+        <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A50)</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="13" t="str">
+        <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A50,Tabelle1[Attached Signal],0))</f>
+        <v>PB5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>565</v>
+      </c>
+      <c r="B51">
+        <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A51)</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="13" t="str">
+        <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A51,Tabelle1[Attached Signal],0))</f>
+        <v>PB13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>566</v>
+      </c>
+      <c r="B52">
+        <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A52)</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="13" t="str">
+        <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A52,Tabelle1[Attached Signal],0))</f>
+        <v>PA10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>567</v>
+      </c>
+      <c r="B53">
+        <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A53)</f>
+        <v>1</v>
+      </c>
+      <c r="C53" s="13" t="str">
+        <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A53,Tabelle1[Attached Signal],0))</f>
+        <v>PA12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B54">
+        <f>COUNTIFS(Tabelle1[Attached Signal],Signals!A54)</f>
+        <v>1</v>
+      </c>
+      <c r="C54" s="13" t="str">
+        <f>INDEX(Tabelle1[Pin Name],MATCH(Signals!A54,Tabelle1[Attached Signal],0))</f>
+        <v>PA11</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:C49" xr:uid="{4C401FA3-E7AE-4D6D-A712-A575441449E4}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B49">
+  <conditionalFormatting sqref="B6:B54">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -22786,9 +22860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE39B38-0AFC-4E8E-851C-174330B3B302}">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -22902,10 +22977,10 @@
         <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>204</v>
@@ -22918,23 +22993,23 @@
       <c r="H6" s="6"/>
       <c r="I6" s="9" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(J6,Signals!$C$6:$C$50,0)),"")</f>
-        <v>TEMP_SPI_CSN3</v>
+        <v>TEMP_SPI_MISO</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>176</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="9" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M6,Signals!$C$6:$C$50,0)),"")</f>
-        <v>TEMP_SPI_CSN2</v>
+        <v>TEMP_SPI_SCK</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -22948,10 +23023,10 @@
         <v>209</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>213</v>
@@ -22964,23 +23039,23 @@
       <c r="H7" s="6"/>
       <c r="I7" s="9" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(J7,Signals!$C$6:$C$50,0)),"")</f>
-        <v>TEMP_SPI_SCK</v>
+        <v>TEMP_SPI_CSN2</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>230</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>167</v>
       </c>
       <c r="N7" s="9" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M7,Signals!$C$6:$C$50,0)),"")</f>
-        <v>TEMP_SPI_CSN1</v>
+        <v>TEMP_SPI_CSN3</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -22994,13 +23069,13 @@
         <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E8,Signals!$C$6:$C$50,0)),"")</f>
@@ -23010,23 +23085,23 @@
       <c r="H8" s="6"/>
       <c r="I8" s="9" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(J8,Signals!$C$6:$C$50,0)),"")</f>
-        <v>TEMP_SPI_MISO</v>
+        <v>TEMP_SPI_CSN0</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>232</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>131</v>
       </c>
       <c r="N8" s="9" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M8,Signals!$C$6:$C$50,0)),"")</f>
-        <v>TEMP_SPI_CSN0</v>
+        <v>TEMP_SPI_CSN1</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -23040,13 +23115,13 @@
         <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E9,Signals!$C$6:$C$50,0)),"")</f>
@@ -23062,13 +23137,13 @@
         <v>87</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N9" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M9,Signals!$C$6:$C$50,0)),"")</f>
@@ -23083,16 +23158,16 @@
         <v/>
       </c>
       <c r="B10" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F10" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E10,Signals!$C$6:$C$50,0)),"")</f>
@@ -23105,16 +23180,16 @@
         <v/>
       </c>
       <c r="J10" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N10" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M10,Signals!$C$6:$C$50,0)),"")</f>
@@ -23129,16 +23204,16 @@
         <v/>
       </c>
       <c r="B11" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E11,Signals!$C$6:$C$50,0)),"")</f>
@@ -23154,17 +23229,17 @@
         <v>115</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>189</v>
       </c>
       <c r="N11" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M11,Signals!$C$6:$C$50,0)),"")</f>
-        <v>USB_DP</v>
+        <v/>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -23178,10 +23253,10 @@
         <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>57</v>
@@ -23200,17 +23275,17 @@
         <v>118</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>186</v>
       </c>
       <c r="N12" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M12,Signals!$C$6:$C$50,0)),"")</f>
-        <v>USB_DM</v>
+        <v/>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -23224,13 +23299,13 @@
         <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E13,Signals!$C$6:$C$50,0)),"")</f>
@@ -23246,10 +23321,10 @@
         <v>122</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>155</v>
@@ -23270,13 +23345,13 @@
         <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E14,Signals!$C$6:$C$50,0)),"")</f>
@@ -23292,10 +23367,10 @@
         <v>225</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>149</v>
@@ -23313,16 +23388,16 @@
         <v/>
       </c>
       <c r="B15" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E15,Signals!$C$6:$C$50,0)),"")</f>
@@ -23338,13 +23413,13 @@
         <v>170</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N15" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M15,Signals!$C$6:$C$50,0)),"")</f>
@@ -23362,13 +23437,13 @@
         <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E16,Signals!$C$6:$C$50,0)),"")</f>
@@ -23378,16 +23453,16 @@
       <c r="H16" s="6"/>
       <c r="I16" s="5" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(J16,Signals!$C$6:$C$50,0)),"")</f>
-        <v>USB_DEV_DETECT_DO</v>
+        <v/>
       </c>
       <c r="J16" s="6" t="s">
         <v>182</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>142</v>
@@ -23408,13 +23483,13 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E17,Signals!$C$6:$C$50,0)),"")</f>
@@ -23430,10 +23505,10 @@
         <v>180</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>139</v>
@@ -23454,13 +23529,13 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F18" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(E18,Signals!$C$6:$C$50,0)),"")</f>
@@ -23476,10 +23551,10 @@
         <v>146</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>162</v>
@@ -23500,10 +23575,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>90</v>
@@ -23522,10 +23597,10 @@
         <v>220</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>160</v>
@@ -23546,10 +23621,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>94</v>
@@ -23562,16 +23637,16 @@
       <c r="H20" s="6"/>
       <c r="I20" s="8" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(J20,Signals!$C$6:$C$50,0)),"")</f>
-        <v/>
+        <v>STATUS_LED_DO</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>223</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>158</v>
@@ -23592,10 +23667,10 @@
         <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>110</v>
@@ -23614,10 +23689,10 @@
         <v>217</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>84</v>
@@ -23638,10 +23713,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>136</v>
@@ -23654,16 +23729,16 @@
       <c r="H22" s="6"/>
       <c r="I22" s="3" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(J22,Signals!$C$6:$C$50,0)),"")</f>
-        <v>TIM4_CH4</v>
+        <v/>
       </c>
       <c r="J22" s="6" t="s">
         <v>184</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>126</v>
@@ -23684,10 +23759,10 @@
         <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>67</v>
@@ -23706,13 +23781,13 @@
         <v>98</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N23" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M23,Signals!$C$6:$C$50,0)),"")</f>
@@ -23730,10 +23805,10 @@
         <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>62</v>
@@ -23752,13 +23827,13 @@
         <v>102</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="N24" t="str">
         <f>IFERROR(INDEX(Signals!$A$6:$A$50,MATCH(M24,Signals!$C$6:$C$50,0)),"")</f>
